--- a/speed-comparison.xlsx
+++ b/speed-comparison.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11400ccfaaab1d2f/Jupyter/uxml-generalised/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11400ccfaaab1d2f/Jupyter/uxml-ecommerce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{2A02BD26-88DD-4040-912F-EAD033AFBFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F69E535-F6B6-4E54-A684-C712A8DD2793}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{2A02BD26-88DD-4040-912F-EAD033AFBFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70C6FFA9-C644-4C9E-9AD6-BB7A2C1297F1}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{FD3419F0-92DC-43A8-A433-4C664937B81B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="scaleing" sheetId="1" r:id="rId1"/>
+    <sheet name="generalization" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>dataset 1 [2 month]</t>
   </si>
@@ -63,7 +64,13 @@
     <t>rows after dropping users with &lt;5 events</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>dataset 2 [11 months]</t>
+  </si>
+  <si>
+    <t>raw data nr. of rows</t>
+  </si>
+  <si>
+    <t>change</t>
   </si>
 </sst>
 </file>
@@ -113,7 +120,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -124,6 +131,10 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -444,7 +455,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -461,8 +472,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -568,6 +579,127 @@
       <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>2.5265780730897007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA5EA2B-59DD-4494-981F-4643D32D1333}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8738120</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2633521</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2/B2</f>
+        <v>0.30138302060397432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>177592</v>
+      </c>
+      <c r="C3" s="2">
+        <v>82534</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" si="0">C3/B3</f>
+        <v>0.46473940267579622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44780</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3595355069227329E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.129</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.7741935483870966E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>165.61</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7605217076263503E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.96</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9169435215946841E-2</v>
       </c>
     </row>
   </sheetData>

--- a/speed-comparison.xlsx
+++ b/speed-comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11400ccfaaab1d2f/Jupyter/uxml-ecommerce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{2A02BD26-88DD-4040-912F-EAD033AFBFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70C6FFA9-C644-4C9E-9AD6-BB7A2C1297F1}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{2A02BD26-88DD-4040-912F-EAD033AFBFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{343EFCB3-9874-45A4-A01D-A2BEC611C912}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{FD3419F0-92DC-43A8-A433-4C664937B81B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{FD3419F0-92DC-43A8-A433-4C664937B81B}"/>
   </bookViews>
   <sheets>
     <sheet name="scaleing" sheetId="1" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8590B5EA-7F28-44B2-873D-E19900EB6B3F}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -544,11 +544,11 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="C6" s="3">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>2.5376344086021505</v>
+        <v>2.408602150537634</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA5EA2B-59DD-4494-981F-4643D32D1333}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -680,11 +680,11 @@
         <v>165.61</v>
       </c>
       <c r="C6" s="3">
-        <v>9.5399999999999991</v>
+        <v>9.35</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>5.7605217076263503E-2</v>
+        <v>5.6457943360908154E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
